--- a/results/results-windows-2016.xlsx
+++ b/results/results-windows-2016.xlsx
@@ -30,272 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Rikard Pavelic</author>
-  </authors>
-  <commentList>
-    <comment ref="M39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Rikard Pavelic</author>
-  </authors>
-  <commentList>
-    <comment ref="M39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Rikard Pavelic</author>
-  </authors>
-  <commentList>
-    <comment ref="M39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Rikard Pavelic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-LocalDate is not serialized correctly</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="55">
   <si>
     <t>Serialization</t>
   </si>
@@ -459,9 +195,6 @@
     <t>1.000 LargeObjects.Book</t>
   </si>
   <si>
-    <t>removed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Newtonsoft </t>
   </si>
 </sst>
@@ -472,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,21 +222,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -531,7 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2103,11 +1821,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="179360512"/>
-        <c:axId val="179362048"/>
+        <c:axId val="163942784"/>
+        <c:axId val="163944320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="179360512"/>
+        <c:axId val="163942784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2116,7 +1834,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179362048"/>
+        <c:crossAx val="163944320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2124,7 +1842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179362048"/>
+        <c:axId val="163944320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +1873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179360512"/>
+        <c:crossAx val="163942784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2315,11 +2033,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184331648"/>
-        <c:axId val="184353920"/>
+        <c:axId val="176249472"/>
+        <c:axId val="176267648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184331648"/>
+        <c:axId val="176249472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2046,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184353920"/>
+        <c:crossAx val="176267648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2336,7 +2054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184353920"/>
+        <c:axId val="176267648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,7 +2084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184331648"/>
+        <c:crossAx val="176249472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2646,11 +2364,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184627584"/>
-        <c:axId val="184629120"/>
+        <c:axId val="176930816"/>
+        <c:axId val="176932352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184627584"/>
+        <c:axId val="176930816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2377,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184629120"/>
+        <c:crossAx val="176932352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2667,7 +2385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184629120"/>
+        <c:axId val="176932352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184627584"/>
+        <c:crossAx val="176930816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2856,11 +2574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184670464"/>
-        <c:axId val="184672256"/>
+        <c:axId val="176969600"/>
+        <c:axId val="176971136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184670464"/>
+        <c:axId val="176969600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +2587,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184672256"/>
+        <c:crossAx val="176971136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2877,7 +2595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184672256"/>
+        <c:axId val="176971136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,7 +2625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184670464"/>
+        <c:crossAx val="176969600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2959,7 +2677,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3188,11 +2905,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187231616"/>
-        <c:axId val="187266176"/>
+        <c:axId val="177306624"/>
+        <c:axId val="177345280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187231616"/>
+        <c:axId val="177306624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3201,7 +2918,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187266176"/>
+        <c:crossAx val="177345280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3209,7 +2926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187266176"/>
+        <c:axId val="177345280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3233,21 +2950,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187231616"/>
+        <c:crossAx val="177306624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3277,7 +2992,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3401,11 +3115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187282944"/>
-        <c:axId val="187284480"/>
+        <c:axId val="177366144"/>
+        <c:axId val="177367680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187282944"/>
+        <c:axId val="177366144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,7 +3128,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187284480"/>
+        <c:crossAx val="177367680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3422,7 +3136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187284480"/>
+        <c:axId val="177367680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,21 +3160,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187282944"/>
+        <c:crossAx val="177366144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3597,7 +3309,7 @@
                   <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>193.66666666666669</c:v>
+                  <c:v>212.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>210.33333333333331</c:v>
@@ -3612,7 +3324,7 @@
                   <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>688.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>760</c:v>
@@ -3702,7 +3414,7 @@
                   <c:v>356.33333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>668.66666666666674</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>390.66666666666674</c:v>
@@ -3717,7 +3429,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>857.33333333333326</c:v>
@@ -3735,11 +3447,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="185690752"/>
-        <c:axId val="185692544"/>
+        <c:axId val="176085248"/>
+        <c:axId val="176820224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185690752"/>
+        <c:axId val="176085248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3748,7 +3460,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185692544"/>
+        <c:crossAx val="176820224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3756,7 +3468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185692544"/>
+        <c:axId val="176820224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3787,7 +3499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185690752"/>
+        <c:crossAx val="176085248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3915,7 +3627,7 @@
                   <c:v>11938890</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>11888890</c:v>
+                  <c:v>11288890</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>10938890</c:v>
@@ -3930,7 +3642,7 @@
                   <c:v>8988890</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>10938890</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>10938890</c:v>
@@ -3948,11 +3660,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187630336"/>
-        <c:axId val="187631872"/>
+        <c:axId val="176849280"/>
+        <c:axId val="176850816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187630336"/>
+        <c:axId val="176849280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3961,7 +3673,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187631872"/>
+        <c:crossAx val="176850816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3969,7 +3681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187631872"/>
+        <c:axId val="176850816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4000,7 +3712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187630336"/>
+        <c:crossAx val="176849280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4144,7 +3856,7 @@
                   <c:v>2155.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1764</c:v>
+                  <c:v>2089</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1230</c:v>
@@ -4159,7 +3871,7 @@
                   <c:v>3670.0000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3941.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5529.6666666666661</c:v>
@@ -4249,7 +3961,7 @@
                   <c:v>3141.9999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6622.666666666667</c:v>
+                  <c:v>8522.3333333333321</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2727.3333333333335</c:v>
@@ -4264,7 +3976,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4303.3333333333348</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5066.666666666667</c:v>
@@ -4282,11 +3994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188200832"/>
-        <c:axId val="188202368"/>
+        <c:axId val="177849856"/>
+        <c:axId val="177851392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188200832"/>
+        <c:axId val="177849856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4295,7 +4007,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188202368"/>
+        <c:crossAx val="177851392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4303,7 +4015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188202368"/>
+        <c:axId val="177851392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,7 +4046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188200832"/>
+        <c:crossAx val="177849856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4462,7 +4174,7 @@
                   <c:v>120388890</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>119888890</c:v>
+                  <c:v>113888890</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>110388890</c:v>
@@ -4477,7 +4189,7 @@
                   <c:v>90888890</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>110388890</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>110388890</c:v>
@@ -4495,11 +4207,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="188248064"/>
-        <c:axId val="188249600"/>
+        <c:axId val="177876352"/>
+        <c:axId val="177894528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188248064"/>
+        <c:axId val="177876352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4508,7 +4220,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188249600"/>
+        <c:crossAx val="177894528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4516,7 +4228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188249600"/>
+        <c:axId val="177894528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,7 +4259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188248064"/>
+        <c:crossAx val="177876352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4691,7 +4403,7 @@
                   <c:v>20929.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17409.333333333336</c:v>
+                  <c:v>20310.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>10752</c:v>
@@ -4706,7 +4418,7 @@
                   <c:v>36756.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>39978.333333333328</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>53794.666666666664</c:v>
@@ -4796,7 +4508,7 @@
                   <c:v>31256.333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65605.666666666672</c:v>
+                  <c:v>85417.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>27167.999999999996</c:v>
@@ -4811,7 +4523,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>38705.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>48146.333333333336</c:v>
@@ -4829,11 +4541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187512320"/>
-        <c:axId val="187513856"/>
+        <c:axId val="176804992"/>
+        <c:axId val="176806528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187512320"/>
+        <c:axId val="176804992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4842,7 +4554,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187513856"/>
+        <c:crossAx val="176806528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4850,7 +4562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187513856"/>
+        <c:axId val="176806528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4881,7 +4593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187512320"/>
+        <c:crossAx val="176804992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5042,11 +4754,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182139520"/>
-        <c:axId val="182153600"/>
+        <c:axId val="175057152"/>
+        <c:axId val="175063040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182139520"/>
+        <c:axId val="175057152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5055,7 +4767,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182153600"/>
+        <c:crossAx val="175063040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5063,7 +4775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182153600"/>
+        <c:axId val="175063040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5094,7 +4806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182139520"/>
+        <c:crossAx val="175057152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5222,7 +4934,7 @@
                   <c:v>1213888890</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>1208888890</c:v>
+                  <c:v>1148888890</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>1113888890</c:v>
@@ -5237,7 +4949,7 @@
                   <c:v>918888890</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>1113888890</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>1113888890</c:v>
@@ -5255,11 +4967,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="187538816"/>
-        <c:axId val="187548800"/>
+        <c:axId val="177613824"/>
+        <c:axId val="177627904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187538816"/>
+        <c:axId val="177613824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5268,7 +4980,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187548800"/>
+        <c:crossAx val="177627904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5276,7 +4988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187548800"/>
+        <c:axId val="177627904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5307,7 +5019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187538816"/>
+        <c:crossAx val="177613824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5360,7 +5072,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5451,7 +5162,7 @@
                   <c:v>523.66666666666674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>160.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>230.33333333333334</c:v>
@@ -5466,7 +5177,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>255.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>286.33333333333331</c:v>
@@ -5556,7 +5267,7 @@
                   <c:v>297.66666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>338.99999999999994</c:v>
@@ -5571,7 +5282,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>328.66666666666669</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>341.00000000000006</c:v>
@@ -5589,11 +5300,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189969152"/>
-        <c:axId val="189970688"/>
+        <c:axId val="178528640"/>
+        <c:axId val="178530176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189969152"/>
+        <c:axId val="178528640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5602,7 +5313,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189970688"/>
+        <c:crossAx val="178530176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5610,7 +5321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189970688"/>
+        <c:axId val="178530176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5634,21 +5345,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189969152"/>
+        <c:crossAx val="178528640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5678,7 +5387,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5769,7 +5477,7 @@
                   <c:v>2249785</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>1785250.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>1763995</c:v>
@@ -5784,7 +5492,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>1763995</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>1763995</c:v>
@@ -5802,11 +5510,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184179328"/>
-        <c:axId val="184181120"/>
+        <c:axId val="178571520"/>
+        <c:axId val="178577408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184179328"/>
+        <c:axId val="178571520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5815,7 +5523,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184181120"/>
+        <c:crossAx val="178577408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5823,7 +5531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184181120"/>
+        <c:axId val="178577408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,21 +5555,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184179328"/>
+        <c:crossAx val="178571520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5907,7 +5613,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5998,7 +5703,7 @@
                   <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>438.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>520.66666666666663</c:v>
@@ -6013,7 +5718,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1232</c:v>
@@ -6103,7 +5808,7 @@
                   <c:v>900.66666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1075</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1009.6666666666666</c:v>
@@ -6118,7 +5823,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1265.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1223.6666666666667</c:v>
@@ -6136,11 +5841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192716160"/>
-        <c:axId val="192722048"/>
+        <c:axId val="178138112"/>
+        <c:axId val="178139904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192716160"/>
+        <c:axId val="178138112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6149,7 +5854,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192722048"/>
+        <c:crossAx val="178139904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6157,7 +5862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192722048"/>
+        <c:axId val="178139904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6181,21 +5886,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192716160"/>
+        <c:crossAx val="178138112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6225,7 +5928,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6316,7 +6018,7 @@
                   <c:v>23399332</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>18799843</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>18541254</c:v>
@@ -6331,7 +6033,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>18541254</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>18541254</c:v>
@@ -6349,11 +6051,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192734720"/>
-        <c:axId val="192736256"/>
+        <c:axId val="178164864"/>
+        <c:axId val="178166400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192734720"/>
+        <c:axId val="178164864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6362,7 +6064,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192736256"/>
+        <c:crossAx val="178166400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6370,7 +6072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192736256"/>
+        <c:axId val="178166400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6394,21 +6096,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192734720"/>
+        <c:crossAx val="178164864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6454,7 +6154,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6545,7 +6244,7 @@
                   <c:v>6462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3304.9999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2035.3333333333333</c:v>
@@ -6560,7 +6259,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>4985</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9422.6666666666661</c:v>
@@ -6650,7 +6349,7 @@
                   <c:v>7116.3333333333321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10630.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6741</c:v>
@@ -6665,7 +6364,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7436.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8611.6666666666661</c:v>
@@ -6683,11 +6382,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195787392"/>
-        <c:axId val="195789184"/>
+        <c:axId val="179050752"/>
+        <c:axId val="179060736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195787392"/>
+        <c:axId val="179050752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6696,7 +6395,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195789184"/>
+        <c:crossAx val="179060736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6704,7 +6403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195789184"/>
+        <c:axId val="179060736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6728,21 +6427,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195787392"/>
+        <c:crossAx val="179050752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6772,7 +6469,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6863,7 +6559,7 @@
                   <c:v>243056893</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>196407889.33333334</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>194475967</c:v>
@@ -6878,7 +6574,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>194475967</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>194475967</c:v>
@@ -6896,11 +6592,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="195818240"/>
-        <c:axId val="195819776"/>
+        <c:axId val="179081600"/>
+        <c:axId val="179083136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195818240"/>
+        <c:axId val="179081600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6909,7 +6605,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195819776"/>
+        <c:crossAx val="179083136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6917,7 +6613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195819776"/>
+        <c:axId val="179083136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6941,21 +6637,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195818240"/>
+        <c:crossAx val="179081600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7001,7 +6695,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7092,7 +6785,7 @@
                   <c:v>1825.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1093.3333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>897.99999999999989</c:v>
@@ -7107,7 +6800,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>954.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2772.6666666666665</c:v>
@@ -7197,7 +6890,7 @@
                   <c:v>1623.3333333333335</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3502.666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1690.6666666666667</c:v>
@@ -7212,7 +6905,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2171.6666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2318.333333333333</c:v>
@@ -7230,11 +6923,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197732224"/>
-        <c:axId val="197733760"/>
+        <c:axId val="179635712"/>
+        <c:axId val="179637248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197732224"/>
+        <c:axId val="179635712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7243,7 +6936,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197733760"/>
+        <c:crossAx val="179637248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7251,7 +6944,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197733760"/>
+        <c:axId val="179637248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7275,21 +6968,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197732224"/>
+        <c:crossAx val="179635712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7319,7 +7010,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7410,7 +7100,7 @@
                   <c:v>84298017</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>78878921.666666672</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>73117617</c:v>
@@ -7425,7 +7115,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>73117617</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>73117617</c:v>
@@ -7443,11 +7133,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197767168"/>
-        <c:axId val="197768704"/>
+        <c:axId val="179649920"/>
+        <c:axId val="179668096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197767168"/>
+        <c:axId val="179649920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7456,7 +7146,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197768704"/>
+        <c:crossAx val="179668096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7464,7 +7154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197768704"/>
+        <c:axId val="179668096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7488,21 +7178,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197767168"/>
+        <c:crossAx val="179649920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7548,7 +7236,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7639,7 +7326,7 @@
                   <c:v>17655</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>10572</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>6999.9999999999991</c:v>
@@ -7654,7 +7341,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7836.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>24288.333333333332</c:v>
@@ -7744,7 +7431,7 @@
                   <c:v>15430.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>34569</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>15830.666666666666</c:v>
@@ -7759,7 +7446,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>14134.000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>19640.333333333336</c:v>
@@ -7777,11 +7464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197837952"/>
-        <c:axId val="197839488"/>
+        <c:axId val="179835648"/>
+        <c:axId val="179837184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197837952"/>
+        <c:axId val="179835648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7790,7 +7477,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197839488"/>
+        <c:crossAx val="179837184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7798,7 +7485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197839488"/>
+        <c:axId val="179837184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7822,21 +7509,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197837952"/>
+        <c:crossAx val="179835648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8110,11 +7795,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182550528"/>
-        <c:axId val="182552064"/>
+        <c:axId val="175377792"/>
+        <c:axId val="175416448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182550528"/>
+        <c:axId val="175377792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8123,7 +7808,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182552064"/>
+        <c:crossAx val="175416448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8131,7 +7816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182552064"/>
+        <c:axId val="175416448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8161,7 +7846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182550528"/>
+        <c:crossAx val="175377792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8197,7 +7882,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8288,7 +7972,7 @@
                   <c:v>853371117</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>799180508.33333337</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>741567117</c:v>
@@ -8303,7 +7987,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>741567117</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>741567117</c:v>
@@ -8321,11 +8005,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190057472"/>
-        <c:axId val="190059264"/>
+        <c:axId val="179862144"/>
+        <c:axId val="179863936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190057472"/>
+        <c:axId val="179862144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8334,7 +8018,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190059264"/>
+        <c:crossAx val="179863936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8342,7 +8026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190059264"/>
+        <c:axId val="179863936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8366,21 +8050,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190057472"/>
+        <c:crossAx val="179862144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8426,7 +8108,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8517,7 +8198,7 @@
                   <c:v>177506.66666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>105545</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>68365</c:v>
@@ -8532,7 +8213,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>74359.333333333343</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>242300.66666666669</c:v>
@@ -8622,7 +8303,7 @@
                   <c:v>156733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>346493.66666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>157059.66666666666</c:v>
@@ -8637,7 +8318,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>143112.99999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>196712.66666666666</c:v>
@@ -8655,11 +8336,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198366336"/>
-        <c:axId val="198367872"/>
+        <c:axId val="178840320"/>
+        <c:axId val="178841856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198366336"/>
+        <c:axId val="178840320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8668,7 +8349,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198367872"/>
+        <c:crossAx val="178841856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8676,7 +8357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198367872"/>
+        <c:axId val="178841856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8700,21 +8381,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198366336"/>
+        <c:crossAx val="178840320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8744,7 +8423,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8835,7 +8513,7 @@
                   <c:v>8637702117</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>8095734041.666667</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="#,##0.0">
                   <c:v>7519662117</c:v>
@@ -8850,7 +8528,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="#,##0.0">
-                  <c:v>0</c:v>
+                  <c:v>7519662117</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="#,##0.0">
                   <c:v>7519662117</c:v>
@@ -8868,11 +8546,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198380544"/>
-        <c:axId val="198390528"/>
+        <c:axId val="178858624"/>
+        <c:axId val="178868608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198380544"/>
+        <c:axId val="178858624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8881,7 +8559,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198390528"/>
+        <c:crossAx val="178868608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8889,7 +8567,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198390528"/>
+        <c:axId val="178868608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8913,21 +8591,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198380544"/>
+        <c:crossAx val="178858624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9201,11 +8877,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197235072"/>
-        <c:axId val="197236608"/>
+        <c:axId val="180609024"/>
+        <c:axId val="180610560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197235072"/>
+        <c:axId val="180609024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9214,7 +8890,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197236608"/>
+        <c:crossAx val="180610560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9222,7 +8898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197236608"/>
+        <c:axId val="180610560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9252,7 +8928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197235072"/>
+        <c:crossAx val="180609024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9411,11 +9087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197257472"/>
-        <c:axId val="197263360"/>
+        <c:axId val="180647808"/>
+        <c:axId val="180649344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197257472"/>
+        <c:axId val="180647808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9424,7 +9100,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197263360"/>
+        <c:crossAx val="180649344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9432,7 +9108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197263360"/>
+        <c:axId val="180649344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9462,7 +9138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197257472"/>
+        <c:crossAx val="180647808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9742,11 +9418,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198966656"/>
-        <c:axId val="198997120"/>
+        <c:axId val="179473408"/>
+        <c:axId val="179495680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198966656"/>
+        <c:axId val="179473408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9755,7 +9431,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198997120"/>
+        <c:crossAx val="179495680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9763,7 +9439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198997120"/>
+        <c:axId val="179495680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9793,7 +9469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198966656"/>
+        <c:crossAx val="179473408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9952,11 +9628,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199026176"/>
-        <c:axId val="199027712"/>
+        <c:axId val="179516544"/>
+        <c:axId val="179518080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199026176"/>
+        <c:axId val="179516544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9965,7 +9641,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199027712"/>
+        <c:crossAx val="179518080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9973,7 +9649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199027712"/>
+        <c:axId val="179518080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10003,7 +9679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199026176"/>
+        <c:crossAx val="179516544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10162,11 +9838,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182650752"/>
-        <c:axId val="182652288"/>
+        <c:axId val="175838720"/>
+        <c:axId val="175840256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182650752"/>
+        <c:axId val="175838720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10175,7 +9851,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182652288"/>
+        <c:crossAx val="175840256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10183,7 +9859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182652288"/>
+        <c:axId val="175840256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10213,7 +9889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182650752"/>
+        <c:crossAx val="175838720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10493,11 +10169,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183751424"/>
-        <c:axId val="183752960"/>
+        <c:axId val="175649152"/>
+        <c:axId val="175650688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183751424"/>
+        <c:axId val="175649152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10506,7 +10182,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183752960"/>
+        <c:crossAx val="175650688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10514,7 +10190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183752960"/>
+        <c:axId val="175650688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10544,7 +10220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183751424"/>
+        <c:crossAx val="175649152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10703,11 +10379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183770112"/>
-        <c:axId val="183788288"/>
+        <c:axId val="175663744"/>
+        <c:axId val="175673728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183770112"/>
+        <c:axId val="175663744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10716,7 +10392,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183788288"/>
+        <c:crossAx val="175673728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10724,7 +10400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183788288"/>
+        <c:axId val="175673728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10754,7 +10430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183770112"/>
+        <c:crossAx val="175663744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11034,11 +10710,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="182493184"/>
-        <c:axId val="182494720"/>
+        <c:axId val="176098688"/>
+        <c:axId val="176157824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182493184"/>
+        <c:axId val="176098688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11047,7 +10723,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182494720"/>
+        <c:crossAx val="176157824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11055,7 +10731,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182494720"/>
+        <c:axId val="176157824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11085,7 +10761,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182493184"/>
+        <c:crossAx val="176098688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11244,11 +10920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184100736"/>
-        <c:axId val="184102272"/>
+        <c:axId val="176434560"/>
+        <c:axId val="176452736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184100736"/>
+        <c:axId val="176434560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11257,7 +10933,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184102272"/>
+        <c:crossAx val="176452736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11265,7 +10941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184102272"/>
+        <c:axId val="176452736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11295,7 +10971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184100736"/>
+        <c:crossAx val="176434560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11575,11 +11251,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184318976"/>
-        <c:axId val="184324864"/>
+        <c:axId val="176235264"/>
+        <c:axId val="176236800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184318976"/>
+        <c:axId val="176235264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11588,7 +11264,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184324864"/>
+        <c:crossAx val="176236800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11596,7 +11272,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184324864"/>
+        <c:axId val="176236800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11626,7 +11302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184318976"/>
+        <c:crossAx val="176235264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16979,7 +16655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17084,7 +16760,7 @@
       </c>
       <c r="H38" s="2">
         <f>AVERAGE(Table57[NetJSON])</f>
-        <v>8192.3333333333339</v>
+        <v>7893.666666666667</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table57[Jackson])</f>
@@ -17104,7 +16780,7 @@
       </c>
       <c r="M38" s="2">
         <f>AVERAGE(Table57[Alibaba])</f>
-        <v>5117</v>
+        <v>5140.333333333333</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table57[Gson])</f>
@@ -17140,7 +16816,7 @@
       </c>
       <c r="H39" s="2">
         <f>AVERAGE(Table56[NetJSON]) - H38</f>
-        <v>17409.333333333336</v>
+        <v>20310.666666666664</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table56[Jackson]) - I38</f>
@@ -17158,8 +16834,9 @@
         <f>AVERAGE(Table56[Boon]) - L38</f>
         <v>36756.666666666672</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>54</v>
+      <c r="M39" s="4">
+        <f>AVERAGE(Table56[Alibaba]) - M38</f>
+        <v>39978.333333333328</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table56[Gson]) - N38</f>
@@ -17195,7 +16872,7 @@
       </c>
       <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>65605.666666666672</v>
+        <v>85417.666666666672</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -17213,9 +16890,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#VALUE!</v>
+        <v>38705.666666666664</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -17251,7 +16928,7 @@
       </c>
       <c r="H41" s="2">
         <f>AVERAGE(Table58[NetJSON])</f>
-        <v>91207.333333333328</v>
+        <v>113622</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table58[Jackson])</f>
@@ -17269,8 +16946,9 @@
         <f>AVERAGE(Table58[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>54</v>
+      <c r="M41" s="4">
+        <f>AVERAGE(Table58[Alibaba])</f>
+        <v>83824.333333333328</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table58[Gson])</f>
@@ -17306,7 +16984,7 @@
       </c>
       <c r="H42" s="2">
         <f>AVERAGE(Table56[NetJSON (size)])</f>
-        <v>1208888890</v>
+        <v>1148888890</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table56[Jackson (size)])</f>
@@ -17324,8 +17002,9 @@
         <f>AVERAGE(Table56[Boon (size)])</f>
         <v>918888890</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>54</v>
+      <c r="M42" s="4">
+        <f>AVERAGE(Table56[Alibaba (size)])</f>
+        <v>1113888890</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table56[Gson (size)])</f>
@@ -17411,7 +17090,7 @@
       </c>
       <c r="H47" s="2">
         <f>DEVSQ(Table56[NetJSON])</f>
-        <v>36392.666666666664</v>
+        <v>6474.666666666667</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table56[Jackson])</f>
@@ -17431,7 +17110,7 @@
       </c>
       <c r="M47" s="2">
         <f>DEVSQ(Table56[Alibaba])</f>
-        <v>499377852.66666675</v>
+        <v>10771168.666666668</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table56[Gson])</f>
@@ -17467,7 +17146,7 @@
       </c>
       <c r="H48" s="2">
         <f>DEVSQ(Table58[NetJSON])</f>
-        <v>69568.666666666672</v>
+        <v>15398</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table58[Jackson])</f>
@@ -17487,7 +17166,7 @@
       </c>
       <c r="M48" s="2">
         <f>DEVSQ(Table58[Alibaba])</f>
-        <v>3885804.666666666</v>
+        <v>64878514.666666657</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table58[Gson])</f>
@@ -17564,7 +17243,7 @@
         <v>7994</v>
       </c>
       <c r="G52">
-        <v>8158</v>
+        <v>7880</v>
       </c>
       <c r="H52">
         <v>5345</v>
@@ -17579,7 +17258,7 @@
         <v>5065</v>
       </c>
       <c r="L52">
-        <v>5115</v>
+        <v>5134</v>
       </c>
       <c r="M52">
         <v>5032</v>
@@ -17602,7 +17281,7 @@
         <v>7982</v>
       </c>
       <c r="G53">
-        <v>8171</v>
+        <v>7902</v>
       </c>
       <c r="H53">
         <v>5031</v>
@@ -17617,7 +17296,7 @@
         <v>5042</v>
       </c>
       <c r="L53">
-        <v>5194</v>
+        <v>5252</v>
       </c>
       <c r="M53">
         <v>5209</v>
@@ -17640,7 +17319,7 @@
         <v>7998</v>
       </c>
       <c r="G54">
-        <v>8248</v>
+        <v>7899</v>
       </c>
       <c r="H54">
         <v>5184</v>
@@ -17655,7 +17334,7 @@
         <v>5015</v>
       </c>
       <c r="L54">
-        <v>5042</v>
+        <v>5035</v>
       </c>
       <c r="M54">
         <v>5119</v>
@@ -17757,7 +17436,7 @@
         <v>28871</v>
       </c>
       <c r="G58">
-        <v>25624</v>
+        <v>28243</v>
       </c>
       <c r="H58">
         <v>16109</v>
@@ -17772,7 +17451,7 @@
         <v>42546</v>
       </c>
       <c r="L58">
-        <v>226042</v>
+        <v>47787</v>
       </c>
       <c r="M58">
         <v>58114</v>
@@ -17793,7 +17472,7 @@
         <v>1213888890</v>
       </c>
       <c r="S58">
-        <v>1208888890</v>
+        <v>1148888890</v>
       </c>
       <c r="T58">
         <v>1113888890</v>
@@ -17808,7 +17487,7 @@
         <v>918888890</v>
       </c>
       <c r="X58">
-        <v>19618327016</v>
+        <v>1113888890</v>
       </c>
       <c r="Y58">
         <v>1113888890</v>
@@ -17831,7 +17510,7 @@
         <v>28720</v>
       </c>
       <c r="G59">
-        <v>25457</v>
+        <v>28139</v>
       </c>
       <c r="H59">
         <v>15790</v>
@@ -17846,7 +17525,7 @@
         <v>40020</v>
       </c>
       <c r="L59">
-        <v>197289</v>
+        <v>43998</v>
       </c>
       <c r="M59">
         <v>59920</v>
@@ -17867,7 +17546,7 @@
         <v>1213888890</v>
       </c>
       <c r="S59">
-        <v>1208888890</v>
+        <v>1148888890</v>
       </c>
       <c r="T59">
         <v>1113888890</v>
@@ -17882,7 +17561,7 @@
         <v>918888890</v>
       </c>
       <c r="X59">
-        <v>19618327067</v>
+        <v>1113888890</v>
       </c>
       <c r="Y59">
         <v>1113888890</v>
@@ -17905,7 +17584,7 @@
         <v>29172</v>
       </c>
       <c r="G60">
-        <v>25724</v>
+        <v>28231</v>
       </c>
       <c r="H60">
         <v>15917</v>
@@ -17920,7 +17599,7 @@
         <v>42826</v>
       </c>
       <c r="L60">
-        <v>200307</v>
+        <v>43571</v>
       </c>
       <c r="M60">
         <v>58710</v>
@@ -17941,7 +17620,7 @@
         <v>1213888890</v>
       </c>
       <c r="S60">
-        <v>1208888890</v>
+        <v>1148888890</v>
       </c>
       <c r="T60">
         <v>1113888890</v>
@@ -17956,7 +17635,7 @@
         <v>918888890</v>
       </c>
       <c r="X60">
-        <v>19618327115</v>
+        <v>1113888890</v>
       </c>
       <c r="Y60">
         <v>1113888890</v>
@@ -18022,7 +17701,7 @@
         <v>60166</v>
       </c>
       <c r="G64">
-        <v>91393</v>
+        <v>113544</v>
       </c>
       <c r="H64">
         <v>44325</v>
@@ -18034,7 +17713,7 @@
         <v>12046</v>
       </c>
       <c r="L64">
-        <v>480822</v>
+        <v>82293</v>
       </c>
       <c r="M64">
         <v>107790</v>
@@ -18057,7 +17736,7 @@
         <v>60244</v>
       </c>
       <c r="G65">
-        <v>91209</v>
+        <v>113605</v>
       </c>
       <c r="H65">
         <v>42488</v>
@@ -18069,7 +17748,7 @@
         <v>11543</v>
       </c>
       <c r="L65">
-        <v>478765</v>
+        <v>90129</v>
       </c>
       <c r="M65">
         <v>107598</v>
@@ -18092,7 +17771,7 @@
         <v>60122</v>
       </c>
       <c r="G66">
-        <v>91020</v>
+        <v>113717</v>
       </c>
       <c r="H66">
         <v>42507</v>
@@ -18104,7 +17783,7 @@
         <v>12621</v>
       </c>
       <c r="L66">
-        <v>478164</v>
+        <v>79051</v>
       </c>
       <c r="M66">
         <v>105795</v>
@@ -18114,13 +17793,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <tableParts count="5">
+    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -18229,9 +17907,9 @@
         <f>AVERAGE(Table62[Jil])</f>
         <v>478.66666666666669</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table62[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>475</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table62[Jackson])</f>
@@ -18249,9 +17927,9 @@
         <f>AVERAGE(Table62[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table62[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>29</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table62[Gson])</f>
@@ -18285,9 +17963,9 @@
         <f>AVERAGE(Table61[Jil]) - G38</f>
         <v>523.66666666666674</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table61[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>160.66666666666663</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table61[Jackson]) - I38</f>
@@ -18305,9 +17983,9 @@
         <f>AVERAGE(Table61[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table61[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>255.66666666666669</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table61[Gson]) - N38</f>
@@ -18341,9 +18019,9 @@
         <f t="shared" si="0"/>
         <v>297.66666666666657</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>127</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -18361,9 +18039,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>328.66666666666669</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -18397,9 +18075,9 @@
         <f>AVERAGE(Table63[Jil])</f>
         <v>1300</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table63[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>762.66666666666663</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table63[Jackson])</f>
@@ -18417,9 +18095,9 @@
         <f>AVERAGE(Table63[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table63[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>613.33333333333337</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table63[Gson])</f>
@@ -18453,9 +18131,9 @@
         <f>AVERAGE(Table61[Jil (size)])</f>
         <v>2249785</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table61[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>1785250.6666666667</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table61[Jackson (size)])</f>
@@ -18473,9 +18151,9 @@
         <f>AVERAGE(Table61[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table61[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>1763995</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table61[Gson (size)])</f>
@@ -18559,9 +18237,9 @@
         <f>DEVSQ(Table61[Jil])</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table61[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table61[Jackson])</f>
@@ -18579,9 +18257,9 @@
         <f>DEVSQ(Table61[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table61[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>34.666666666666671</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table61[Gson])</f>
@@ -18615,9 +18293,9 @@
         <f>DEVSQ(Table63[Jil])</f>
         <v>6</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table63[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table63[Jackson])</f>
@@ -18635,9 +18313,9 @@
         <f>DEVSQ(Table63[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table63[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>44.666666666666664</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table63[Gson])</f>
@@ -18713,6 +18391,9 @@
       <c r="F52">
         <v>478</v>
       </c>
+      <c r="G52">
+        <v>474</v>
+      </c>
       <c r="H52">
         <v>32</v>
       </c>
@@ -18721,6 +18402,9 @@
       </c>
       <c r="J52">
         <v>35</v>
+      </c>
+      <c r="L52">
+        <v>29</v>
       </c>
       <c r="M52">
         <v>29</v>
@@ -18742,6 +18426,9 @@
       <c r="F53">
         <v>478</v>
       </c>
+      <c r="G53">
+        <v>475</v>
+      </c>
       <c r="H53">
         <v>32</v>
       </c>
@@ -18749,6 +18436,9 @@
         <v>32</v>
       </c>
       <c r="J53">
+        <v>29</v>
+      </c>
+      <c r="L53">
         <v>29</v>
       </c>
       <c r="M53">
@@ -18771,6 +18461,9 @@
       <c r="F54">
         <v>480</v>
       </c>
+      <c r="G54">
+        <v>476</v>
+      </c>
       <c r="H54">
         <v>33</v>
       </c>
@@ -18778,6 +18471,9 @@
         <v>32</v>
       </c>
       <c r="J54">
+        <v>29</v>
+      </c>
+      <c r="L54">
         <v>29</v>
       </c>
       <c r="M54">
@@ -18879,6 +18575,9 @@
       <c r="F58">
         <v>1001</v>
       </c>
+      <c r="G58">
+        <v>636</v>
+      </c>
       <c r="H58">
         <v>263</v>
       </c>
@@ -18888,6 +18587,9 @@
       <c r="J58">
         <v>102</v>
       </c>
+      <c r="L58">
+        <v>286</v>
+      </c>
       <c r="M58">
         <v>318</v>
       </c>
@@ -18906,6 +18608,9 @@
       <c r="R58">
         <v>2249785</v>
       </c>
+      <c r="S58">
+        <v>1788584</v>
+      </c>
       <c r="T58">
         <v>1763995</v>
       </c>
@@ -18914,6 +18619,9 @@
       </c>
       <c r="V58">
         <v>654855</v>
+      </c>
+      <c r="X58">
+        <v>1763995</v>
       </c>
       <c r="Y58">
         <v>1763995</v>
@@ -18935,6 +18643,9 @@
       <c r="F59">
         <v>1002</v>
       </c>
+      <c r="G59">
+        <v>635</v>
+      </c>
       <c r="H59">
         <v>264</v>
       </c>
@@ -18944,6 +18655,9 @@
       <c r="J59">
         <v>109</v>
       </c>
+      <c r="L59">
+        <v>288</v>
+      </c>
       <c r="M59">
         <v>314</v>
       </c>
@@ -18962,6 +18676,9 @@
       <c r="R59">
         <v>2249785</v>
       </c>
+      <c r="S59">
+        <v>1788584</v>
+      </c>
       <c r="T59">
         <v>1763995</v>
       </c>
@@ -18970,6 +18687,9 @@
       </c>
       <c r="V59">
         <v>654855</v>
+      </c>
+      <c r="X59">
+        <v>1763995</v>
       </c>
       <c r="Y59">
         <v>1763995</v>
@@ -18991,6 +18711,9 @@
       <c r="F60">
         <v>1004</v>
       </c>
+      <c r="G60">
+        <v>636</v>
+      </c>
       <c r="H60">
         <v>261</v>
       </c>
@@ -19000,6 +18723,9 @@
       <c r="J60">
         <v>104</v>
       </c>
+      <c r="L60">
+        <v>280</v>
+      </c>
       <c r="M60">
         <v>314</v>
       </c>
@@ -19018,6 +18744,9 @@
       <c r="R60">
         <v>2249785</v>
       </c>
+      <c r="S60">
+        <v>1778584</v>
+      </c>
       <c r="T60">
         <v>1763995</v>
       </c>
@@ -19026,6 +18755,9 @@
       </c>
       <c r="V60">
         <v>654855</v>
+      </c>
+      <c r="X60">
+        <v>1763995</v>
       </c>
       <c r="Y60">
         <v>1763995</v>
@@ -19090,6 +18822,9 @@
       <c r="F64">
         <v>1301</v>
       </c>
+      <c r="G64">
+        <v>763</v>
+      </c>
       <c r="H64">
         <v>589</v>
       </c>
@@ -19098,6 +18833,9 @@
       </c>
       <c r="J64">
         <v>176</v>
+      </c>
+      <c r="L64">
+        <v>617</v>
       </c>
       <c r="M64">
         <v>725</v>
@@ -19119,6 +18857,9 @@
       <c r="F65">
         <v>1301</v>
       </c>
+      <c r="G65">
+        <v>763</v>
+      </c>
       <c r="H65">
         <v>609</v>
       </c>
@@ -19127,6 +18868,9 @@
       </c>
       <c r="J65">
         <v>173</v>
+      </c>
+      <c r="L65">
+        <v>608</v>
       </c>
       <c r="M65">
         <v>631</v>
@@ -19148,6 +18892,9 @@
       <c r="F66">
         <v>1298</v>
       </c>
+      <c r="G66">
+        <v>762</v>
+      </c>
       <c r="H66">
         <v>607</v>
       </c>
@@ -19156,6 +18903,9 @@
       </c>
       <c r="J66">
         <v>167</v>
+      </c>
+      <c r="L66">
+        <v>615</v>
       </c>
       <c r="M66">
         <v>613</v>
@@ -19279,9 +19029,9 @@
         <f>AVERAGE(Table67[Jil])</f>
         <v>669.33333333333337</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table67[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>664.33333333333337</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table67[Jackson])</f>
@@ -19299,9 +19049,9 @@
         <f>AVERAGE(Table67[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table67[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>60.666666666666664</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table67[Gson])</f>
@@ -19335,9 +19085,9 @@
         <f>AVERAGE(Table66[Jil]) - G38</f>
         <v>1055</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table66[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>438.99999999999989</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table66[Jackson]) - I38</f>
@@ -19355,9 +19105,9 @@
         <f>AVERAGE(Table66[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table66[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>806</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table66[Gson]) - N38</f>
@@ -19391,9 +19141,9 @@
         <f t="shared" si="0"/>
         <v>900.66666666666663</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1075</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -19411,9 +19161,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>1265.6666666666667</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -19447,9 +19197,9 @@
         <f>AVERAGE(Table68[Jil])</f>
         <v>2625</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table68[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>2178.3333333333335</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table68[Jackson])</f>
@@ -19467,9 +19217,9 @@
         <f>AVERAGE(Table68[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table68[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>2132.3333333333335</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table68[Gson])</f>
@@ -19503,9 +19253,9 @@
         <f>AVERAGE(Table66[Jil (size)])</f>
         <v>23399332</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table66[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>18799843</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table66[Jackson (size)])</f>
@@ -19523,9 +19273,9 @@
         <f>AVERAGE(Table66[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table66[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>18541254</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table66[Gson (size)])</f>
@@ -19609,9 +19359,9 @@
         <f>DEVSQ(Table66[Jil])</f>
         <v>44.666666666666664</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table66[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>4.6666666666666661</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table66[Jackson])</f>
@@ -19629,9 +19379,9 @@
         <f>DEVSQ(Table66[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table66[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>690.66666666666674</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table66[Gson])</f>
@@ -19665,9 +19415,9 @@
         <f>DEVSQ(Table68[Jil])</f>
         <v>104</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table68[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table68[Jackson])</f>
@@ -19685,9 +19435,9 @@
         <f>DEVSQ(Table68[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table68[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>1228.6666666666667</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table68[Gson])</f>
@@ -19763,6 +19513,9 @@
       <c r="F52">
         <v>669</v>
       </c>
+      <c r="G52">
+        <v>663</v>
+      </c>
       <c r="H52">
         <v>66</v>
       </c>
@@ -19770,6 +19523,9 @@
         <v>65</v>
       </c>
       <c r="J52">
+        <v>61</v>
+      </c>
+      <c r="L52">
         <v>61</v>
       </c>
       <c r="M52">
@@ -19792,6 +19548,9 @@
       <c r="F53">
         <v>667</v>
       </c>
+      <c r="G53">
+        <v>665</v>
+      </c>
       <c r="H53">
         <v>64</v>
       </c>
@@ -19800,6 +19559,9 @@
       </c>
       <c r="J53">
         <v>56</v>
+      </c>
+      <c r="L53">
+        <v>60</v>
       </c>
       <c r="M53">
         <v>63</v>
@@ -19821,6 +19583,9 @@
       <c r="F54">
         <v>672</v>
       </c>
+      <c r="G54">
+        <v>665</v>
+      </c>
       <c r="H54">
         <v>63</v>
       </c>
@@ -19828,6 +19593,9 @@
         <v>64</v>
       </c>
       <c r="J54">
+        <v>61</v>
+      </c>
+      <c r="L54">
         <v>61</v>
       </c>
       <c r="M54">
@@ -19929,6 +19697,9 @@
       <c r="F58">
         <v>1728</v>
       </c>
+      <c r="G58">
+        <v>1105</v>
+      </c>
       <c r="H58">
         <v>566</v>
       </c>
@@ -19938,6 +19709,9 @@
       <c r="J58">
         <v>214</v>
       </c>
+      <c r="L58">
+        <v>888</v>
+      </c>
       <c r="M58">
         <v>1276</v>
       </c>
@@ -19956,6 +19730,9 @@
       <c r="R58">
         <v>23399332</v>
       </c>
+      <c r="S58">
+        <v>18799843</v>
+      </c>
       <c r="T58">
         <v>18541254</v>
       </c>
@@ -19964,6 +19741,9 @@
       </c>
       <c r="V58">
         <v>7091834</v>
+      </c>
+      <c r="X58">
+        <v>18541254</v>
       </c>
       <c r="Y58">
         <v>18541254</v>
@@ -19985,6 +19765,9 @@
       <c r="F59">
         <v>1719</v>
       </c>
+      <c r="G59">
+        <v>1103</v>
+      </c>
       <c r="H59">
         <v>600</v>
       </c>
@@ -19994,6 +19777,9 @@
       <c r="J59">
         <v>213</v>
       </c>
+      <c r="L59">
+        <v>858</v>
+      </c>
       <c r="M59">
         <v>1299</v>
       </c>
@@ -20012,6 +19798,9 @@
       <c r="R59">
         <v>23399332</v>
       </c>
+      <c r="S59">
+        <v>18799843</v>
+      </c>
       <c r="T59">
         <v>18541254</v>
       </c>
@@ -20020,6 +19809,9 @@
       </c>
       <c r="V59">
         <v>7091834</v>
+      </c>
+      <c r="X59">
+        <v>18541254</v>
       </c>
       <c r="Y59">
         <v>18541254</v>
@@ -20041,6 +19833,9 @@
       <c r="F60">
         <v>1726</v>
       </c>
+      <c r="G60">
+        <v>1102</v>
+      </c>
       <c r="H60">
         <v>589</v>
       </c>
@@ -20050,6 +19845,9 @@
       <c r="J60">
         <v>204</v>
       </c>
+      <c r="L60">
+        <v>854</v>
+      </c>
       <c r="M60">
         <v>1309</v>
       </c>
@@ -20068,6 +19866,9 @@
       <c r="R60">
         <v>23399332</v>
       </c>
+      <c r="S60">
+        <v>18799843</v>
+      </c>
       <c r="T60">
         <v>18541254</v>
       </c>
@@ -20076,6 +19877,9 @@
       </c>
       <c r="V60">
         <v>7091834</v>
+      </c>
+      <c r="X60">
+        <v>18541254</v>
       </c>
       <c r="Y60">
         <v>18541254</v>
@@ -20140,6 +19944,9 @@
       <c r="F64">
         <v>2633</v>
       </c>
+      <c r="G64">
+        <v>2176</v>
+      </c>
       <c r="H64">
         <v>1558</v>
       </c>
@@ -20148,6 +19955,9 @@
       </c>
       <c r="J64">
         <v>389</v>
+      </c>
+      <c r="L64">
+        <v>2159</v>
       </c>
       <c r="M64">
         <v>2517</v>
@@ -20169,6 +19979,9 @@
       <c r="F65">
         <v>2619</v>
       </c>
+      <c r="G65">
+        <v>2178</v>
+      </c>
       <c r="H65">
         <v>1534</v>
       </c>
@@ -20177,6 +19990,9 @@
       </c>
       <c r="J65">
         <v>378</v>
+      </c>
+      <c r="L65">
+        <v>2110</v>
       </c>
       <c r="M65">
         <v>2491</v>
@@ -20198,6 +20014,9 @@
       <c r="F66">
         <v>2623</v>
       </c>
+      <c r="G66">
+        <v>2181</v>
+      </c>
       <c r="H66">
         <v>1692</v>
       </c>
@@ -20206,6 +20025,9 @@
       </c>
       <c r="J66">
         <v>374</v>
+      </c>
+      <c r="L66">
+        <v>2128</v>
       </c>
       <c r="M66">
         <v>2547</v>
@@ -20329,9 +20151,9 @@
         <f>AVERAGE(Table72[Jil])</f>
         <v>2572.3333333333335</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table72[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>2556.3333333333335</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table72[Jackson])</f>
@@ -20349,9 +20171,9 @@
         <f>AVERAGE(Table72[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table72[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>188.33333333333334</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table72[Gson])</f>
@@ -20385,9 +20207,9 @@
         <f>AVERAGE(Table71[Jil]) - G38</f>
         <v>6462</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table71[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>3304.9999999999995</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table71[Jackson]) - I38</f>
@@ -20405,9 +20227,9 @@
         <f>AVERAGE(Table71[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table71[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>4985</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table71[Gson]) - N38</f>
@@ -20441,9 +20263,9 @@
         <f t="shared" si="0"/>
         <v>7116.3333333333321</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>10630.333333333334</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -20461,9 +20283,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>7436.666666666667</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -20497,9 +20319,9 @@
         <f>AVERAGE(Table73[Jil])</f>
         <v>16150.666666666666</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table73[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>16491.666666666668</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table73[Jackson])</f>
@@ -20517,9 +20339,9 @@
         <f>AVERAGE(Table73[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table73[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>12610</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table73[Gson])</f>
@@ -20553,9 +20375,9 @@
         <f>AVERAGE(Table71[Jil (size)])</f>
         <v>243056893</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table71[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>196407889.33333334</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table71[Jackson (size)])</f>
@@ -20573,9 +20395,9 @@
         <f>AVERAGE(Table71[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table71[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>194475967</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table71[Gson (size)])</f>
@@ -20659,9 +20481,9 @@
         <f>DEVSQ(Table71[Jil])</f>
         <v>492.66666666666674</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table71[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>72.666666666666657</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table71[Jackson])</f>
@@ -20679,9 +20501,9 @@
         <f>DEVSQ(Table71[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table71[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>24044.666666666668</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table71[Gson])</f>
@@ -20715,9 +20537,9 @@
         <f>DEVSQ(Table73[Jil])</f>
         <v>3722.6666666666661</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table73[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>1184.6666666666665</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table73[Jackson])</f>
@@ -20735,9 +20557,9 @@
         <f>DEVSQ(Table73[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table73[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>39998</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table73[Gson])</f>
@@ -20813,6 +20635,9 @@
       <c r="F52">
         <v>2583</v>
       </c>
+      <c r="G52">
+        <v>2570</v>
+      </c>
       <c r="H52">
         <v>197</v>
       </c>
@@ -20821,6 +20646,9 @@
       </c>
       <c r="J52">
         <v>205</v>
+      </c>
+      <c r="L52">
+        <v>187</v>
       </c>
       <c r="M52">
         <v>188</v>
@@ -20842,6 +20670,9 @@
       <c r="F53">
         <v>2568</v>
       </c>
+      <c r="G53">
+        <v>2564</v>
+      </c>
       <c r="H53">
         <v>188</v>
       </c>
@@ -20850,6 +20681,9 @@
       </c>
       <c r="J53">
         <v>185</v>
+      </c>
+      <c r="L53">
+        <v>188</v>
       </c>
       <c r="M53">
         <v>190</v>
@@ -20871,6 +20705,9 @@
       <c r="F54">
         <v>2566</v>
       </c>
+      <c r="G54">
+        <v>2535</v>
+      </c>
       <c r="H54">
         <v>181</v>
       </c>
@@ -20879,6 +20716,9 @@
       </c>
       <c r="J54">
         <v>185</v>
+      </c>
+      <c r="L54">
+        <v>190</v>
       </c>
       <c r="M54">
         <v>189</v>
@@ -20979,6 +20819,9 @@
       <c r="F58">
         <v>9022</v>
       </c>
+      <c r="G58">
+        <v>5862</v>
+      </c>
       <c r="H58">
         <v>2174</v>
       </c>
@@ -20988,6 +20831,9 @@
       <c r="J58">
         <v>870</v>
       </c>
+      <c r="L58">
+        <v>5135</v>
+      </c>
       <c r="M58">
         <v>9596</v>
       </c>
@@ -21006,6 +20852,9 @@
       <c r="R58">
         <v>243056893</v>
       </c>
+      <c r="S58">
+        <v>197074556</v>
+      </c>
       <c r="T58">
         <v>194475967</v>
       </c>
@@ -21014,6 +20863,9 @@
       </c>
       <c r="V58">
         <v>74036454</v>
+      </c>
+      <c r="X58">
+        <v>194475967</v>
       </c>
       <c r="Y58">
         <v>194475967</v>
@@ -21035,6 +20887,9 @@
       <c r="F59">
         <v>9052</v>
       </c>
+      <c r="G59">
+        <v>5867</v>
+      </c>
       <c r="H59">
         <v>2236</v>
       </c>
@@ -21044,6 +20899,9 @@
       <c r="J59">
         <v>894</v>
       </c>
+      <c r="L59">
+        <v>5297</v>
+      </c>
       <c r="M59">
         <v>9905</v>
       </c>
@@ -21062,6 +20920,9 @@
       <c r="R59">
         <v>243056893</v>
       </c>
+      <c r="S59">
+        <v>196074556</v>
+      </c>
       <c r="T59">
         <v>194475967</v>
       </c>
@@ -21070,6 +20931,9 @@
       </c>
       <c r="V59">
         <v>74036454</v>
+      </c>
+      <c r="X59">
+        <v>194475967</v>
       </c>
       <c r="Y59">
         <v>194475967</v>
@@ -21091,6 +20955,9 @@
       <c r="F60">
         <v>9029</v>
       </c>
+      <c r="G60">
+        <v>5855</v>
+      </c>
       <c r="H60">
         <v>2262</v>
       </c>
@@ -21100,6 +20967,9 @@
       <c r="J60">
         <v>855</v>
       </c>
+      <c r="L60">
+        <v>5088</v>
+      </c>
       <c r="M60">
         <v>9334</v>
       </c>
@@ -21118,6 +20988,9 @@
       <c r="R60">
         <v>243056893</v>
       </c>
+      <c r="S60">
+        <v>196074556</v>
+      </c>
       <c r="T60">
         <v>194475967</v>
       </c>
@@ -21126,6 +20999,9 @@
       </c>
       <c r="V60">
         <v>74036454</v>
+      </c>
+      <c r="X60">
+        <v>194475967</v>
       </c>
       <c r="Y60">
         <v>194475967</v>
@@ -21190,6 +21066,9 @@
       <c r="F64">
         <v>16200</v>
       </c>
+      <c r="G64">
+        <v>16487</v>
+      </c>
       <c r="H64">
         <v>9015</v>
       </c>
@@ -21198,6 +21077,9 @@
       </c>
       <c r="J64">
         <v>1696</v>
+      </c>
+      <c r="L64">
+        <v>12700</v>
       </c>
       <c r="M64">
         <v>18351</v>
@@ -21219,6 +21101,9 @@
       <c r="F65">
         <v>16132</v>
       </c>
+      <c r="G65">
+        <v>16518</v>
+      </c>
       <c r="H65">
         <v>8685</v>
       </c>
@@ -21227,6 +21112,9 @@
       </c>
       <c r="J65">
         <v>1737</v>
+      </c>
+      <c r="L65">
+        <v>12447</v>
       </c>
       <c r="M65">
         <v>18512</v>
@@ -21248,6 +21136,9 @@
       <c r="F66">
         <v>16120</v>
       </c>
+      <c r="G66">
+        <v>16470</v>
+      </c>
       <c r="H66">
         <v>9195</v>
       </c>
@@ -21256,6 +21147,9 @@
       </c>
       <c r="J66">
         <v>1686</v>
+      </c>
+      <c r="L66">
+        <v>12683</v>
       </c>
       <c r="M66">
         <v>17807</v>
@@ -21379,9 +21273,9 @@
         <f>AVERAGE(Table77[Jil])</f>
         <v>824.33333333333337</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table77[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>826</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table77[Jackson])</f>
@@ -21399,9 +21293,9 @@
         <f>AVERAGE(Table77[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table77[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>215.66666666666666</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table77[Gson])</f>
@@ -21435,9 +21329,9 @@
         <f>AVERAGE(Table76[Jil]) - G38</f>
         <v>1825.333333333333</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table76[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>1093.3333333333333</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table76[Jackson]) - I38</f>
@@ -21455,9 +21349,9 @@
         <f>AVERAGE(Table76[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table76[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>954.33333333333337</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table76[Gson]) - N38</f>
@@ -21491,9 +21385,9 @@
         <f t="shared" si="0"/>
         <v>1623.3333333333335</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3502.666666666667</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -21511,9 +21405,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>2171.6666666666665</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -21547,9 +21441,9 @@
         <f>AVERAGE(Table78[Jil])</f>
         <v>4273</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table78[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>5422</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table78[Jackson])</f>
@@ -21567,9 +21461,9 @@
         <f>AVERAGE(Table78[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table78[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>3341.6666666666665</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table78[Gson])</f>
@@ -21603,9 +21497,9 @@
         <f>AVERAGE(Table76[Jil (size)])</f>
         <v>84298017</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table76[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>78878921.666666672</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table76[Jackson (size)])</f>
@@ -21623,9 +21517,9 @@
         <f>AVERAGE(Table76[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table76[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>73117617</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table76[Gson (size)])</f>
@@ -21709,9 +21603,9 @@
         <f>DEVSQ(Table76[Jil])</f>
         <v>16.666666666666664</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table76[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table76[Jackson])</f>
@@ -21729,9 +21623,9 @@
         <f>DEVSQ(Table76[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table76[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>14694</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table76[Gson])</f>
@@ -21765,9 +21659,9 @@
         <f>DEVSQ(Table78[Jil])</f>
         <v>1046</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table78[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>294</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table78[Jackson])</f>
@@ -21785,9 +21679,9 @@
         <f>DEVSQ(Table78[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table78[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>33224.666666666664</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table78[Gson])</f>
@@ -21863,6 +21757,9 @@
       <c r="F52">
         <v>827</v>
       </c>
+      <c r="G52">
+        <v>826</v>
+      </c>
       <c r="H52">
         <v>296</v>
       </c>
@@ -21871,6 +21768,9 @@
       </c>
       <c r="J52">
         <v>206</v>
+      </c>
+      <c r="L52">
+        <v>214</v>
       </c>
       <c r="M52">
         <v>224</v>
@@ -21892,6 +21792,9 @@
       <c r="F53">
         <v>822</v>
       </c>
+      <c r="G53">
+        <v>827</v>
+      </c>
       <c r="H53">
         <v>264</v>
       </c>
@@ -21900,6 +21803,9 @@
       </c>
       <c r="J53">
         <v>219</v>
+      </c>
+      <c r="L53">
+        <v>215</v>
       </c>
       <c r="M53">
         <v>213</v>
@@ -21921,6 +21827,9 @@
       <c r="F54">
         <v>824</v>
       </c>
+      <c r="G54">
+        <v>825</v>
+      </c>
       <c r="H54">
         <v>206</v>
       </c>
@@ -21929,6 +21838,9 @@
       </c>
       <c r="J54">
         <v>211</v>
+      </c>
+      <c r="L54">
+        <v>218</v>
       </c>
       <c r="M54">
         <v>212</v>
@@ -22029,6 +21941,9 @@
       <c r="F58">
         <v>2653</v>
       </c>
+      <c r="G58">
+        <v>1922</v>
+      </c>
       <c r="H58">
         <v>1170</v>
       </c>
@@ -22038,6 +21953,9 @@
       <c r="J58">
         <v>478</v>
       </c>
+      <c r="L58">
+        <v>1088</v>
+      </c>
       <c r="M58">
         <v>2977</v>
       </c>
@@ -22056,6 +21974,9 @@
       <c r="R58">
         <v>84298017</v>
       </c>
+      <c r="S58">
+        <v>78878395</v>
+      </c>
       <c r="T58">
         <v>73117617</v>
       </c>
@@ -22064,6 +21985,9 @@
       </c>
       <c r="V58">
         <v>31184505</v>
+      </c>
+      <c r="X58">
+        <v>73117617</v>
       </c>
       <c r="Y58">
         <v>73117617</v>
@@ -22085,6 +22009,9 @@
       <c r="F59">
         <v>2648</v>
       </c>
+      <c r="G59">
+        <v>1920</v>
+      </c>
       <c r="H59">
         <v>1124</v>
       </c>
@@ -22094,6 +22021,9 @@
       <c r="J59">
         <v>542</v>
       </c>
+      <c r="L59">
+        <v>1259</v>
+      </c>
       <c r="M59">
         <v>2936</v>
       </c>
@@ -22112,6 +22042,9 @@
       <c r="R59">
         <v>84298017</v>
       </c>
+      <c r="S59">
+        <v>78878675</v>
+      </c>
       <c r="T59">
         <v>73117617</v>
       </c>
@@ -22120,6 +22053,9 @@
       </c>
       <c r="V59">
         <v>31184505</v>
+      </c>
+      <c r="X59">
+        <v>73117617</v>
       </c>
       <c r="Y59">
         <v>73117617</v>
@@ -22141,6 +22077,9 @@
       <c r="F60">
         <v>2648</v>
       </c>
+      <c r="G60">
+        <v>1916</v>
+      </c>
       <c r="H60">
         <v>1166</v>
       </c>
@@ -22150,6 +22089,9 @@
       <c r="J60">
         <v>489</v>
       </c>
+      <c r="L60">
+        <v>1163</v>
+      </c>
       <c r="M60">
         <v>3054</v>
       </c>
@@ -22168,6 +22110,9 @@
       <c r="R60">
         <v>84298017</v>
       </c>
+      <c r="S60">
+        <v>78879695</v>
+      </c>
       <c r="T60">
         <v>73117617</v>
       </c>
@@ -22176,6 +22121,9 @@
       </c>
       <c r="V60">
         <v>31184505</v>
+      </c>
+      <c r="X60">
+        <v>73117617</v>
       </c>
       <c r="Y60">
         <v>73117617</v>
@@ -22240,6 +22188,9 @@
       <c r="F64">
         <v>4282</v>
       </c>
+      <c r="G64">
+        <v>5415</v>
+      </c>
       <c r="H64">
         <v>2832</v>
       </c>
@@ -22248,6 +22199,9 @@
       </c>
       <c r="J64">
         <v>814</v>
+      </c>
+      <c r="L64">
+        <v>3373</v>
       </c>
       <c r="M64">
         <v>5243</v>
@@ -22269,6 +22223,9 @@
       <c r="F65">
         <v>4290</v>
       </c>
+      <c r="G65">
+        <v>5415</v>
+      </c>
       <c r="H65">
         <v>2911</v>
       </c>
@@ -22277,6 +22234,9 @@
       </c>
       <c r="J65">
         <v>773</v>
+      </c>
+      <c r="L65">
+        <v>3452</v>
       </c>
       <c r="M65">
         <v>5503</v>
@@ -22298,6 +22258,9 @@
       <c r="F66">
         <v>4247</v>
       </c>
+      <c r="G66">
+        <v>5436</v>
+      </c>
       <c r="H66">
         <v>2789</v>
       </c>
@@ -22306,6 +22269,9 @@
       </c>
       <c r="J66">
         <v>828</v>
+      </c>
+      <c r="L66">
+        <v>3200</v>
       </c>
       <c r="M66">
         <v>5176</v>
@@ -22429,9 +22395,9 @@
         <f>AVERAGE(Table82[Jil])</f>
         <v>8197.6666666666661</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table82[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>8074</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table82[Jackson])</f>
@@ -22449,9 +22415,9 @@
         <f>AVERAGE(Table82[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table82[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>1249.6666666666667</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table82[Gson])</f>
@@ -22485,9 +22451,9 @@
         <f>AVERAGE(Table81[Jil]) - G38</f>
         <v>17655</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table81[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>10572</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table81[Jackson]) - I38</f>
@@ -22505,9 +22471,9 @@
         <f>AVERAGE(Table81[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table81[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>7836.333333333333</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table81[Gson]) - N38</f>
@@ -22541,9 +22507,9 @@
         <f t="shared" si="0"/>
         <v>15430.999999999998</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>34569</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -22561,9 +22527,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>14134.000000000002</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -22597,9 +22563,9 @@
         <f>AVERAGE(Table83[Jil])</f>
         <v>41283.666666666664</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table83[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>53215</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table83[Jackson])</f>
@@ -22617,9 +22583,9 @@
         <f>AVERAGE(Table83[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table83[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>23220</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table83[Gson])</f>
@@ -22653,9 +22619,9 @@
         <f>AVERAGE(Table81[Jil (size)])</f>
         <v>853371117</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table81[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>799180508.33333337</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table81[Jackson (size)])</f>
@@ -22673,9 +22639,9 @@
         <f>AVERAGE(Table81[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table81[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>741567117</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table81[Gson (size)])</f>
@@ -22759,9 +22725,9 @@
         <f>DEVSQ(Table81[Jil])</f>
         <v>4464.666666666667</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table81[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>626</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table81[Jackson])</f>
@@ -22779,9 +22745,9 @@
         <f>DEVSQ(Table81[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table81[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>93002</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table81[Gson])</f>
@@ -22815,9 +22781,9 @@
         <f>DEVSQ(Table83[Jil])</f>
         <v>23188.666666666668</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table83[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>4406</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table83[Jackson])</f>
@@ -22835,9 +22801,9 @@
         <f>DEVSQ(Table83[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table83[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>127608</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table83[Gson])</f>
@@ -22913,6 +22879,9 @@
       <c r="F52">
         <v>8122</v>
       </c>
+      <c r="G52">
+        <v>8077</v>
+      </c>
       <c r="H52">
         <v>1272</v>
       </c>
@@ -22921,6 +22890,9 @@
       </c>
       <c r="J52">
         <v>1269</v>
+      </c>
+      <c r="L52">
+        <v>1212</v>
       </c>
       <c r="M52">
         <v>1255</v>
@@ -22942,6 +22914,9 @@
       <c r="F53">
         <v>8104</v>
       </c>
+      <c r="G53">
+        <v>8105</v>
+      </c>
       <c r="H53">
         <v>1256</v>
       </c>
@@ -22950,6 +22925,9 @@
       </c>
       <c r="J53">
         <v>1263</v>
+      </c>
+      <c r="L53">
+        <v>1272</v>
       </c>
       <c r="M53">
         <v>1250</v>
@@ -22971,6 +22949,9 @@
       <c r="F54">
         <v>8367</v>
       </c>
+      <c r="G54">
+        <v>8040</v>
+      </c>
       <c r="H54">
         <v>1218</v>
       </c>
@@ -22979,6 +22960,9 @@
       </c>
       <c r="J54">
         <v>1246</v>
+      </c>
+      <c r="L54">
+        <v>1265</v>
       </c>
       <c r="M54">
         <v>1220</v>
@@ -23079,6 +23063,9 @@
       <c r="F58">
         <v>25888</v>
       </c>
+      <c r="G58">
+        <v>18665</v>
+      </c>
       <c r="H58">
         <v>8361</v>
       </c>
@@ -23088,6 +23075,9 @@
       <c r="J58">
         <v>3055</v>
       </c>
+      <c r="L58">
+        <v>9027</v>
+      </c>
       <c r="M58">
         <v>25089</v>
       </c>
@@ -23106,6 +23096,9 @@
       <c r="R58">
         <v>853371117</v>
       </c>
+      <c r="S58">
+        <v>799184175</v>
+      </c>
       <c r="T58">
         <v>741567117</v>
       </c>
@@ -23114,6 +23107,9 @@
       </c>
       <c r="V58">
         <v>322172245</v>
+      </c>
+      <c r="X58">
+        <v>741567117</v>
       </c>
       <c r="Y58">
         <v>741567117</v>
@@ -23135,6 +23131,9 @@
       <c r="F59">
         <v>25799</v>
       </c>
+      <c r="G59">
+        <v>18630</v>
+      </c>
       <c r="H59">
         <v>7943</v>
       </c>
@@ -23144,6 +23143,9 @@
       <c r="J59">
         <v>3151</v>
       </c>
+      <c r="L59">
+        <v>8906</v>
+      </c>
       <c r="M59">
         <v>25904</v>
       </c>
@@ -23162,6 +23164,9 @@
       <c r="R59">
         <v>853371117</v>
       </c>
+      <c r="S59">
+        <v>799195575</v>
+      </c>
       <c r="T59">
         <v>741567117</v>
       </c>
@@ -23170,6 +23175,9 @@
       </c>
       <c r="V59">
         <v>322172245</v>
+      </c>
+      <c r="X59">
+        <v>741567117</v>
       </c>
       <c r="Y59">
         <v>741567117</v>
@@ -23191,6 +23199,9 @@
       <c r="F60">
         <v>25871</v>
       </c>
+      <c r="G60">
+        <v>18643</v>
+      </c>
       <c r="H60">
         <v>8442</v>
       </c>
@@ -23200,6 +23211,9 @@
       <c r="J60">
         <v>3181</v>
       </c>
+      <c r="L60">
+        <v>9325</v>
+      </c>
       <c r="M60">
         <v>25597</v>
       </c>
@@ -23218,6 +23232,9 @@
       <c r="R60">
         <v>853371117</v>
       </c>
+      <c r="S60">
+        <v>799161775</v>
+      </c>
       <c r="T60">
         <v>741567117</v>
       </c>
@@ -23226,6 +23243,9 @@
       </c>
       <c r="V60">
         <v>322172245</v>
+      </c>
+      <c r="X60">
+        <v>741567117</v>
       </c>
       <c r="Y60">
         <v>741567117</v>
@@ -23290,6 +23310,9 @@
       <c r="F64">
         <v>41222</v>
       </c>
+      <c r="G64">
+        <v>53184</v>
+      </c>
       <c r="H64">
         <v>24055</v>
       </c>
@@ -23298,6 +23321,9 @@
       </c>
       <c r="J64">
         <v>5546</v>
+      </c>
+      <c r="L64">
+        <v>23200</v>
       </c>
       <c r="M64">
         <v>44345</v>
@@ -23319,6 +23345,9 @@
       <c r="F65">
         <v>41408</v>
       </c>
+      <c r="G65">
+        <v>53269</v>
+      </c>
       <c r="H65">
         <v>24204</v>
       </c>
@@ -23327,6 +23356,9 @@
       </c>
       <c r="J65">
         <v>5470</v>
+      </c>
+      <c r="L65">
+        <v>22978</v>
       </c>
       <c r="M65">
         <v>45535</v>
@@ -23348,6 +23380,9 @@
       <c r="F66">
         <v>41221</v>
       </c>
+      <c r="G66">
+        <v>53192</v>
+      </c>
       <c r="H66">
         <v>23979</v>
       </c>
@@ -23356,6 +23391,9 @@
       </c>
       <c r="J66">
         <v>5550</v>
+      </c>
+      <c r="L66">
+        <v>23482</v>
       </c>
       <c r="M66">
         <v>45631</v>
@@ -23479,9 +23517,9 @@
         <f>AVERAGE(Table87[Jil])</f>
         <v>80146.333333333328</v>
       </c>
-      <c r="H38" s="2" t="e">
+      <c r="H38" s="2">
         <f>AVERAGE(Table87[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>79588</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table87[Jackson])</f>
@@ -23499,9 +23537,9 @@
         <f>AVERAGE(Table87[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="2" t="e">
+      <c r="M38" s="2">
         <f>AVERAGE(Table87[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>11391.333333333334</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table87[Gson])</f>
@@ -23535,9 +23573,9 @@
         <f>AVERAGE(Table86[Jil]) - G38</f>
         <v>177506.66666666669</v>
       </c>
-      <c r="H39" s="2" t="e">
+      <c r="H39" s="2">
         <f>AVERAGE(Table86[NetJSON]) - H38</f>
-        <v>#DIV/0!</v>
+        <v>105545</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table86[Jackson]) - I38</f>
@@ -23555,9 +23593,9 @@
         <f>AVERAGE(Table86[Boon]) - L38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="2" t="e">
+      <c r="M39" s="2">
         <f>AVERAGE(Table86[Alibaba]) - M38</f>
-        <v>#DIV/0!</v>
+        <v>74359.333333333343</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table86[Gson]) - N38</f>
@@ -23591,9 +23629,9 @@
         <f t="shared" si="0"/>
         <v>156733</v>
       </c>
-      <c r="H40" s="2" t="e">
+      <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>346493.66666666663</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -23611,9 +23649,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#DIV/0!</v>
+        <v>143112.99999999997</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -23647,9 +23685,9 @@
         <f>AVERAGE(Table88[Jil])</f>
         <v>414386</v>
       </c>
-      <c r="H41" s="2" t="e">
+      <c r="H41" s="2">
         <f>AVERAGE(Table88[NetJSON])</f>
-        <v>#DIV/0!</v>
+        <v>531626.66666666663</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table88[Jackson])</f>
@@ -23667,9 +23705,9 @@
         <f>AVERAGE(Table88[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="2" t="e">
+      <c r="M41" s="2">
         <f>AVERAGE(Table88[Alibaba])</f>
-        <v>#DIV/0!</v>
+        <v>228863.66666666666</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table88[Gson])</f>
@@ -23703,9 +23741,9 @@
         <f>AVERAGE(Table86[Jil (size)])</f>
         <v>8637702117</v>
       </c>
-      <c r="H42" s="2" t="e">
+      <c r="H42" s="2">
         <f>AVERAGE(Table86[NetJSON (size)])</f>
-        <v>#DIV/0!</v>
+        <v>8095734041.666667</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table86[Jackson (size)])</f>
@@ -23723,9 +23761,9 @@
         <f>AVERAGE(Table86[Boon (size)])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M42" s="2" t="e">
+      <c r="M42" s="2">
         <f>AVERAGE(Table86[Alibaba (size)])</f>
-        <v>#DIV/0!</v>
+        <v>7519662117</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table86[Gson (size)])</f>
@@ -23809,9 +23847,9 @@
         <f>DEVSQ(Table86[Jil])</f>
         <v>101582</v>
       </c>
-      <c r="H47" s="2" t="e">
+      <c r="H47" s="2">
         <f>DEVSQ(Table86[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>1344726</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table86[Jackson])</f>
@@ -23829,9 +23867,9 @@
         <f>DEVSQ(Table86[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M47" s="2" t="e">
+      <c r="M47" s="2">
         <f>DEVSQ(Table86[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>3121612.666666667</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table86[Gson])</f>
@@ -23865,9 +23903,9 @@
         <f>DEVSQ(Table88[Jil])</f>
         <v>24542</v>
       </c>
-      <c r="H48" s="2" t="e">
+      <c r="H48" s="2">
         <f>DEVSQ(Table88[NetJSON])</f>
-        <v>#NUM!</v>
+        <v>1890880.666666667</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table88[Jackson])</f>
@@ -23885,9 +23923,9 @@
         <f>DEVSQ(Table88[Boon])</f>
         <v>#NUM!</v>
       </c>
-      <c r="M48" s="2" t="e">
+      <c r="M48" s="2">
         <f>DEVSQ(Table88[Alibaba])</f>
-        <v>#NUM!</v>
+        <v>83335028.666666657</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table88[Gson])</f>
@@ -23963,6 +24001,9 @@
       <c r="F52">
         <v>81346</v>
       </c>
+      <c r="G52">
+        <v>79428</v>
+      </c>
       <c r="H52">
         <v>11081</v>
       </c>
@@ -23971,6 +24012,9 @@
       </c>
       <c r="J52">
         <v>11003</v>
+      </c>
+      <c r="L52">
+        <v>11569</v>
       </c>
       <c r="M52">
         <v>11607</v>
@@ -23992,6 +24036,9 @@
       <c r="F53">
         <v>79460</v>
       </c>
+      <c r="G53">
+        <v>79408</v>
+      </c>
       <c r="H53">
         <v>11027</v>
       </c>
@@ -24000,6 +24047,9 @@
       </c>
       <c r="J53">
         <v>11473</v>
+      </c>
+      <c r="L53">
+        <v>11269</v>
       </c>
       <c r="M53">
         <v>11495</v>
@@ -24021,6 +24071,9 @@
       <c r="F54">
         <v>79633</v>
       </c>
+      <c r="G54">
+        <v>79928</v>
+      </c>
       <c r="H54">
         <v>11165</v>
       </c>
@@ -24029,6 +24082,9 @@
       </c>
       <c r="J54">
         <v>11074</v>
+      </c>
+      <c r="L54">
+        <v>11336</v>
       </c>
       <c r="M54">
         <v>11181</v>
@@ -24129,6 +24185,9 @@
       <c r="F58">
         <v>257838</v>
       </c>
+      <c r="G58">
+        <v>185319</v>
+      </c>
       <c r="H58">
         <v>80153</v>
       </c>
@@ -24138,6 +24197,9 @@
       <c r="J58">
         <v>28876</v>
       </c>
+      <c r="L58">
+        <v>85167</v>
+      </c>
       <c r="M58">
         <v>264408</v>
       </c>
@@ -24156,6 +24218,9 @@
       <c r="R58">
         <v>8637702117</v>
       </c>
+      <c r="S58">
+        <v>8095753375</v>
+      </c>
       <c r="T58">
         <v>7519662117</v>
       </c>
@@ -24164,6 +24229,9 @@
       </c>
       <c r="V58">
         <v>3323159245</v>
+      </c>
+      <c r="X58">
+        <v>7519662117</v>
       </c>
       <c r="Y58">
         <v>7519662117</v>
@@ -24185,6 +24253,9 @@
       <c r="F59">
         <v>257719</v>
       </c>
+      <c r="G59">
+        <v>185844</v>
+      </c>
       <c r="H59">
         <v>79156</v>
       </c>
@@ -24194,6 +24265,9 @@
       <c r="J59">
         <v>28913</v>
       </c>
+      <c r="L59">
+        <v>84900</v>
+      </c>
       <c r="M59">
         <v>248711</v>
       </c>
@@ -24212,6 +24286,9 @@
       <c r="R59">
         <v>8637702117</v>
       </c>
+      <c r="S59">
+        <v>8095695375</v>
+      </c>
       <c r="T59">
         <v>7519662117</v>
       </c>
@@ -24220,6 +24297,9 @@
       </c>
       <c r="V59">
         <v>3323159245</v>
+      </c>
+      <c r="X59">
+        <v>7519662117</v>
       </c>
       <c r="Y59">
         <v>7519662117</v>
@@ -24241,6 +24321,9 @@
       <c r="F60">
         <v>257402</v>
       </c>
+      <c r="G60">
+        <v>184236</v>
+      </c>
       <c r="H60">
         <v>79059</v>
       </c>
@@ -24250,6 +24333,9 @@
       <c r="J60">
         <v>30697</v>
       </c>
+      <c r="L60">
+        <v>87185</v>
+      </c>
       <c r="M60">
         <v>248066</v>
       </c>
@@ -24268,6 +24354,9 @@
       <c r="R60">
         <v>8637702117</v>
       </c>
+      <c r="S60">
+        <v>8095753375</v>
+      </c>
       <c r="T60">
         <v>7519662117</v>
       </c>
@@ -24276,6 +24365,9 @@
       </c>
       <c r="V60">
         <v>3323159245</v>
+      </c>
+      <c r="X60">
+        <v>7519662117</v>
       </c>
       <c r="Y60">
         <v>7519662117</v>
@@ -24340,6 +24432,9 @@
       <c r="F64">
         <v>414395</v>
       </c>
+      <c r="G64">
+        <v>532093</v>
+      </c>
       <c r="H64">
         <v>234323</v>
       </c>
@@ -24348,6 +24443,9 @@
       </c>
       <c r="J64">
         <v>52040</v>
+      </c>
+      <c r="L64">
+        <v>226958</v>
       </c>
       <c r="M64">
         <v>443363</v>
@@ -24369,6 +24467,9 @@
       <c r="F65">
         <v>414492</v>
       </c>
+      <c r="G65">
+        <v>530509</v>
+      </c>
       <c r="H65">
         <v>236991</v>
       </c>
@@ -24377,6 +24478,9 @@
       </c>
       <c r="J65">
         <v>52417</v>
+      </c>
+      <c r="L65">
+        <v>223576</v>
       </c>
       <c r="M65">
         <v>462152</v>
@@ -24398,6 +24502,9 @@
       <c r="F66">
         <v>414271</v>
       </c>
+      <c r="G66">
+        <v>532278</v>
+      </c>
       <c r="H66">
         <v>238233</v>
       </c>
@@ -24406,6 +24513,9 @@
       </c>
       <c r="J66">
         <v>54318</v>
+      </c>
+      <c r="L66">
+        <v>236057</v>
       </c>
       <c r="M66">
         <v>445808</v>
@@ -24799,7 +24909,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -33258,7 +33368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33383,7 +33493,7 @@
       </c>
       <c r="M38" s="2">
         <f>AVERAGE(Table47[Alibaba])</f>
-        <v>224.33333333333334</v>
+        <v>213.66666666666666</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table47[Gson])</f>
@@ -33419,7 +33529,7 @@
       </c>
       <c r="H39" s="2">
         <f>AVERAGE(Table46[NetJSON]) - H38</f>
-        <v>193.66666666666669</v>
+        <v>212.66666666666669</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table46[Jackson]) - I38</f>
@@ -33437,8 +33547,9 @@
         <f>AVERAGE(Table46[Boon]) - L38</f>
         <v>537</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>54</v>
+      <c r="M39" s="4">
+        <f>AVERAGE(Table46[Alibaba]) - M38</f>
+        <v>688.33333333333337</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table46[Gson]) - N38</f>
@@ -33474,7 +33585,7 @@
       </c>
       <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>668.66666666666674</v>
+        <v>878</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -33492,9 +33603,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#VALUE!</v>
+        <v>574</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -33530,7 +33641,7 @@
       </c>
       <c r="H41" s="2">
         <f>AVERAGE(Table48[NetJSON])</f>
-        <v>959.33333333333337</v>
+        <v>1187.6666666666667</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table48[Jackson])</f>
@@ -33548,8 +33659,9 @@
         <f>AVERAGE(Table48[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>54</v>
+      <c r="M41" s="4">
+        <f>AVERAGE(Table48[Alibaba])</f>
+        <v>1476</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table48[Gson])</f>
@@ -33585,7 +33697,7 @@
       </c>
       <c r="H42" s="2">
         <f>AVERAGE(Table46[NetJSON (size)])</f>
-        <v>11888890</v>
+        <v>11288890</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table46[Jackson (size)])</f>
@@ -33603,8 +33715,9 @@
         <f>AVERAGE(Table46[Boon (size)])</f>
         <v>8988890</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>54</v>
+      <c r="M42" s="4">
+        <f>AVERAGE(Table46[Alibaba (size)])</f>
+        <v>10938890</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table46[Gson (size)])</f>
@@ -33690,7 +33803,7 @@
       </c>
       <c r="H47" s="2">
         <f>DEVSQ(Table46[NetJSON])</f>
-        <v>4.6666666666666661</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table46[Jackson])</f>
@@ -33710,7 +33823,7 @@
       </c>
       <c r="M47" s="2">
         <f>DEVSQ(Table46[Alibaba])</f>
-        <v>3416</v>
+        <v>2912</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table46[Gson])</f>
@@ -33746,7 +33859,7 @@
       </c>
       <c r="H48" s="2">
         <f>DEVSQ(Table48[NetJSON])</f>
-        <v>4.666666666666667</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table48[Jackson])</f>
@@ -33766,7 +33879,7 @@
       </c>
       <c r="M48" s="2">
         <f>DEVSQ(Table48[Alibaba])</f>
-        <v>13274</v>
+        <v>6846</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table48[Gson])</f>
@@ -33858,7 +33971,7 @@
         <v>228</v>
       </c>
       <c r="L52">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M52">
         <v>224</v>
@@ -33896,7 +34009,7 @@
         <v>232</v>
       </c>
       <c r="L53">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M53">
         <v>238</v>
@@ -33934,7 +34047,7 @@
         <v>227</v>
       </c>
       <c r="L54">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="M54">
         <v>225</v>
@@ -34036,7 +34149,7 @@
         <v>322</v>
       </c>
       <c r="G58">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="H58">
         <v>494</v>
@@ -34051,7 +34164,7 @@
         <v>756</v>
       </c>
       <c r="L58">
-        <v>2718</v>
+        <v>926</v>
       </c>
       <c r="M58">
         <v>1032</v>
@@ -34072,7 +34185,7 @@
         <v>11938890</v>
       </c>
       <c r="S58">
-        <v>11888890</v>
+        <v>11288890</v>
       </c>
       <c r="T58">
         <v>10938890</v>
@@ -34087,7 +34200,7 @@
         <v>8988890</v>
       </c>
       <c r="X58">
-        <v>195979127</v>
+        <v>10938890</v>
       </c>
       <c r="Y58">
         <v>10938890</v>
@@ -34110,7 +34223,7 @@
         <v>321</v>
       </c>
       <c r="G59">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="H59">
         <v>408</v>
@@ -34125,7 +34238,7 @@
         <v>769</v>
       </c>
       <c r="L59">
-        <v>2776</v>
+        <v>922</v>
       </c>
       <c r="M59">
         <v>954</v>
@@ -34146,7 +34259,7 @@
         <v>11938890</v>
       </c>
       <c r="S59">
-        <v>11888890</v>
+        <v>11288890</v>
       </c>
       <c r="T59">
         <v>10938890</v>
@@ -34161,7 +34274,7 @@
         <v>8988890</v>
       </c>
       <c r="X59">
-        <v>195979130</v>
+        <v>10938890</v>
       </c>
       <c r="Y59">
         <v>10938890</v>
@@ -34184,7 +34297,7 @@
         <v>325</v>
       </c>
       <c r="G60">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="H60">
         <v>383</v>
@@ -34199,7 +34312,7 @@
         <v>773</v>
       </c>
       <c r="L60">
-        <v>2798</v>
+        <v>858</v>
       </c>
       <c r="M60">
         <v>981</v>
@@ -34220,7 +34333,7 @@
         <v>11938890</v>
       </c>
       <c r="S60">
-        <v>11888890</v>
+        <v>11288890</v>
       </c>
       <c r="T60">
         <v>10938890</v>
@@ -34235,7 +34348,7 @@
         <v>8988890</v>
       </c>
       <c r="X60">
-        <v>195979130</v>
+        <v>10938890</v>
       </c>
       <c r="Y60">
         <v>10938890</v>
@@ -34301,7 +34414,7 @@
         <v>678</v>
       </c>
       <c r="G64">
-        <v>959</v>
+        <v>1189</v>
       </c>
       <c r="H64">
         <v>840</v>
@@ -34313,7 +34426,7 @@
         <v>396</v>
       </c>
       <c r="L64">
-        <v>5677</v>
+        <v>1418</v>
       </c>
       <c r="M64">
         <v>1810</v>
@@ -34336,7 +34449,7 @@
         <v>679</v>
       </c>
       <c r="G65">
-        <v>958</v>
+        <v>1187</v>
       </c>
       <c r="H65">
         <v>823</v>
@@ -34348,7 +34461,7 @@
         <v>405</v>
       </c>
       <c r="L65">
-        <v>5798</v>
+        <v>1475</v>
       </c>
       <c r="M65">
         <v>1839</v>
@@ -34371,7 +34484,7 @@
         <v>680</v>
       </c>
       <c r="G66">
-        <v>961</v>
+        <v>1187</v>
       </c>
       <c r="H66">
         <v>794</v>
@@ -34383,7 +34496,7 @@
         <v>403</v>
       </c>
       <c r="L66">
-        <v>5832</v>
+        <v>1535</v>
       </c>
       <c r="M66">
         <v>1890</v>
@@ -34393,19 +34506,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <tableParts count="5">
+    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34510,7 +34622,7 @@
       </c>
       <c r="H38" s="2">
         <f>AVERAGE(Table52[NetJSON])</f>
-        <v>820.33333333333337</v>
+        <v>794.33333333333337</v>
       </c>
       <c r="I38" s="2">
         <f>AVERAGE(Table52[Jackson])</f>
@@ -34530,7 +34642,7 @@
       </c>
       <c r="M38" s="2">
         <f>AVERAGE(Table52[Alibaba])</f>
-        <v>680</v>
+        <v>690.33333333333337</v>
       </c>
       <c r="N38" s="2">
         <f>AVERAGE(Table52[Gson])</f>
@@ -34566,7 +34678,7 @@
       </c>
       <c r="H39" s="2">
         <f>AVERAGE(Table51[NetJSON]) - H38</f>
-        <v>1764</v>
+        <v>2089</v>
       </c>
       <c r="I39" s="2">
         <f>AVERAGE(Table51[Jackson]) - I38</f>
@@ -34584,8 +34696,9 @@
         <f>AVERAGE(Table51[Boon]) - L38</f>
         <v>3670.0000000000005</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>54</v>
+      <c r="M39" s="4">
+        <f>AVERAGE(Table51[Alibaba]) - M38</f>
+        <v>3941.6666666666665</v>
       </c>
       <c r="N39" s="2">
         <f>AVERAGE(Table51[Gson]) - N38</f>
@@ -34621,7 +34734,7 @@
       </c>
       <c r="H40" s="2">
         <f t="shared" si="0"/>
-        <v>6622.666666666667</v>
+        <v>8522.3333333333321</v>
       </c>
       <c r="I40" s="2">
         <f t="shared" ref="I40" si="2">I41 - I39 - I38</f>
@@ -34639,9 +34752,9 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="2" t="e">
+      <c r="M40" s="2">
         <f t="shared" ref="M40" si="5">M41 - M39 - M38</f>
-        <v>#VALUE!</v>
+        <v>4303.3333333333348</v>
       </c>
       <c r="N40" s="2">
         <f t="shared" ref="N40" si="6">N41 - N39 - N38</f>
@@ -34677,7 +34790,7 @@
       </c>
       <c r="H41" s="2">
         <f>AVERAGE(Table53[NetJSON])</f>
-        <v>9207</v>
+        <v>11405.666666666666</v>
       </c>
       <c r="I41" s="2">
         <f>AVERAGE(Table53[Jackson])</f>
@@ -34695,8 +34808,9 @@
         <f>AVERAGE(Table53[Boon])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>54</v>
+      <c r="M41" s="4">
+        <f>AVERAGE(Table53[Alibaba])</f>
+        <v>8935.3333333333339</v>
       </c>
       <c r="N41" s="2">
         <f>AVERAGE(Table53[Gson])</f>
@@ -34732,7 +34846,7 @@
       </c>
       <c r="H42" s="2">
         <f>AVERAGE(Table51[NetJSON (size)])</f>
-        <v>119888890</v>
+        <v>113888890</v>
       </c>
       <c r="I42" s="2">
         <f>AVERAGE(Table51[Jackson (size)])</f>
@@ -34750,8 +34864,9 @@
         <f>AVERAGE(Table51[Boon (size)])</f>
         <v>90888890</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>54</v>
+      <c r="M42" s="4">
+        <f>AVERAGE(Table51[Alibaba (size)])</f>
+        <v>110388890</v>
       </c>
       <c r="N42" s="2">
         <f>AVERAGE(Table51[Gson (size)])</f>
@@ -34837,7 +34952,7 @@
       </c>
       <c r="H47" s="2">
         <f>DEVSQ(Table51[NetJSON])</f>
-        <v>428.66666666666663</v>
+        <v>84.666666666666671</v>
       </c>
       <c r="I47" s="2">
         <f>DEVSQ(Table51[Jackson])</f>
@@ -34857,7 +34972,7 @@
       </c>
       <c r="M47" s="2">
         <f>DEVSQ(Table51[Alibaba])</f>
-        <v>20600.666666666664</v>
+        <v>4298</v>
       </c>
       <c r="N47" s="2">
         <f>DEVSQ(Table51[Gson])</f>
@@ -34893,7 +35008,7 @@
       </c>
       <c r="H48" s="2">
         <f>DEVSQ(Table53[NetJSON])</f>
-        <v>614</v>
+        <v>88.666666666666657</v>
       </c>
       <c r="I48" s="2">
         <f>DEVSQ(Table53[Jackson])</f>
@@ -34913,7 +35028,7 @@
       </c>
       <c r="M48" s="2">
         <f>DEVSQ(Table53[Alibaba])</f>
-        <v>1984986</v>
+        <v>685538.66666666663</v>
       </c>
       <c r="N48" s="2">
         <f>DEVSQ(Table53[Gson])</f>
@@ -34990,7 +35105,7 @@
         <v>804</v>
       </c>
       <c r="G52">
-        <v>819</v>
+        <v>793</v>
       </c>
       <c r="H52">
         <v>665</v>
@@ -35005,7 +35120,7 @@
         <v>711</v>
       </c>
       <c r="L52">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="M52">
         <v>689</v>
@@ -35028,7 +35143,7 @@
         <v>804</v>
       </c>
       <c r="G53">
-        <v>822</v>
+        <v>794</v>
       </c>
       <c r="H53">
         <v>672</v>
@@ -35043,7 +35158,7 @@
         <v>698</v>
       </c>
       <c r="L53">
-        <v>682</v>
+        <v>702</v>
       </c>
       <c r="M53">
         <v>674</v>
@@ -35066,7 +35181,7 @@
         <v>804</v>
       </c>
       <c r="G54">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="H54">
         <v>668</v>
@@ -35081,7 +35196,7 @@
         <v>675</v>
       </c>
       <c r="L54">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="M54">
         <v>718</v>
@@ -35183,7 +35298,7 @@
         <v>2958</v>
       </c>
       <c r="G58">
-        <v>2600</v>
+        <v>2883</v>
       </c>
       <c r="H58">
         <v>1898</v>
@@ -35198,7 +35313,7 @@
         <v>4277</v>
       </c>
       <c r="L58">
-        <v>20444</v>
+        <v>4617</v>
       </c>
       <c r="M58">
         <v>6280</v>
@@ -35219,7 +35334,7 @@
         <v>120388890</v>
       </c>
       <c r="S58">
-        <v>119888890</v>
+        <v>113888890</v>
       </c>
       <c r="T58">
         <v>110388890</v>
@@ -35234,7 +35349,7 @@
         <v>90888890</v>
       </c>
       <c r="X58">
-        <v>1960898405</v>
+        <v>110388890</v>
       </c>
       <c r="Y58">
         <v>110388890</v>
@@ -35257,7 +35372,7 @@
         <v>2960</v>
       </c>
       <c r="G59">
-        <v>2582</v>
+        <v>2890</v>
       </c>
       <c r="H59">
         <v>1894</v>
@@ -35272,7 +35387,7 @@
         <v>4441</v>
       </c>
       <c r="L59">
-        <v>20569</v>
+        <v>4684</v>
       </c>
       <c r="M59">
         <v>6172</v>
@@ -35293,7 +35408,7 @@
         <v>120388890</v>
       </c>
       <c r="S59">
-        <v>119888890</v>
+        <v>113888890</v>
       </c>
       <c r="T59">
         <v>110388890</v>
@@ -35308,7 +35423,7 @@
         <v>90888890</v>
       </c>
       <c r="X59">
-        <v>1960898404</v>
+        <v>110388890</v>
       </c>
       <c r="Y59">
         <v>110388890</v>
@@ -35331,7 +35446,7 @@
         <v>2960</v>
       </c>
       <c r="G60">
-        <v>2571</v>
+        <v>2877</v>
       </c>
       <c r="H60">
         <v>1903</v>
@@ -35346,7 +35461,7 @@
         <v>4376</v>
       </c>
       <c r="L60">
-        <v>20368</v>
+        <v>4595</v>
       </c>
       <c r="M60">
         <v>6218</v>
@@ -35367,7 +35482,7 @@
         <v>120388890</v>
       </c>
       <c r="S60">
-        <v>119888890</v>
+        <v>113888890</v>
       </c>
       <c r="T60">
         <v>110388890</v>
@@ -35382,7 +35497,7 @@
         <v>90888890</v>
       </c>
       <c r="X60">
-        <v>1960898402</v>
+        <v>110388890</v>
       </c>
       <c r="Y60">
         <v>110388890</v>
@@ -35448,7 +35563,7 @@
         <v>6088</v>
       </c>
       <c r="G64">
-        <v>9224</v>
+        <v>11410</v>
       </c>
       <c r="H64">
         <v>4439</v>
@@ -35460,7 +35575,7 @@
         <v>1551</v>
       </c>
       <c r="L64">
-        <v>49931</v>
+        <v>8852</v>
       </c>
       <c r="M64">
         <v>11349</v>
@@ -35483,7 +35598,7 @@
         <v>6116</v>
       </c>
       <c r="G65">
-        <v>9208</v>
+        <v>11398</v>
       </c>
       <c r="H65">
         <v>4812</v>
@@ -35495,7 +35610,7 @@
         <v>1612</v>
       </c>
       <c r="L65">
-        <v>48329</v>
+        <v>8396</v>
       </c>
       <c r="M65">
         <v>11330</v>
@@ -35518,7 +35633,7 @@
         <v>6100</v>
       </c>
       <c r="G66">
-        <v>9189</v>
+        <v>11409</v>
       </c>
       <c r="H66">
         <v>4626</v>
@@ -35530,7 +35645,7 @@
         <v>1616</v>
       </c>
       <c r="L66">
-        <v>48104</v>
+        <v>9558</v>
       </c>
       <c r="M66">
         <v>11191</v>
@@ -35540,13 +35655,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
   <tableParts count="5">
+    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>